--- a/Program/Other/LM050_底稿_放款保險法第3條利害關係人放款餘額表_限額控管.xlsx
+++ b/Program/Other/LM050_底稿_放款保險法第3條利害關係人放款餘額表_限額控管.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768D644-21E7-4637-80DD-439379300813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7250ADC-C5D8-491F-8AFB-D34A09D5DC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,40 +432,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -476,34 +447,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -514,11 +463,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -537,18 +483,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -579,14 +513,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -928,68 +892,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="41" style="18" customWidth="1"/>
-    <col min="8" max="8" width="2.69921875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="2.19921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="41" style="13" customWidth="1"/>
+    <col min="8" max="8" width="2.69921875" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="22" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="33.6" customHeight="1" thickTop="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G3" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/Program/Other/LM050_底稿_放款保險法第3條利害關係人放款餘額表_限額控管.xlsx
+++ b/Program/Other/LM050_底稿_放款保險法第3條利害關係人放款餘額表_限額控管.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5E1DC-0FDB-4D8C-A4A3-ECB83F92F552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="18315" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="108.04" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'108.04'!$A$3:$G$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'108.04'!$B$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'108.04'!$A$3:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'108.04'!$B$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'108.04'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -25,33 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>機密等級：機密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">放款餘額
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(千元)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>108</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -61,7 +40,49 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>108年4月30日</t>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -73,18 +94,110 @@
       </rPr>
       <t>依「保險業利害關係人放款管理辦法」第3條利害關係人放款餘額表</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108.3.31 淨值（核閱數）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">貸 款 戶 名 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">占淨值比
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>108.3.31</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 淨值（核閱數）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>機密等級：機密</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>貸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>款</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>戶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">放款餘額
 </t>
     </r>
     <r>
@@ -95,9 +208,25 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
+      <t>(千元)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">占淨值比
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>(%)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -108,58 +237,714 @@
       <rPr>
         <b/>
         <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（副總經理）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（部資深協理）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（副總經裡）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之授信職員</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司董事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合　計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>職　員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>關 係 人 放 款 總 額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佔 總 放 款 比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一 般 客 戶 合 計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放 款 總 額 ＊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>計</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>職</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>員</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>關</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>係</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>款</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>額</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>佔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>般</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>戶合計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>佔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>款</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>額</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>◎放款總餘額包含催收款項及費用。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">經 辦：                 經理：                  風險管理人：                  協理：                       </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>‧淨值用財簽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>安Ｘ興業股份有限公司　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>蕭Ｘ齡　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>張Ｘ隆　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>袁Ｘ隆　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>陳Ｘ凱　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>黃Ｘ三　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>蔡Ｘ惠　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>呂Ｘ民　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>羅Ｘ哲　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>黃Ｘ萍　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>段Ｘ傑　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>蔡Ｘ紫　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>盧Ｘ堯原名盧志忠　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>陳Ｘ餘　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>賴Ｘ誠　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>歐Ｘ志祥　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>陳Ｘ慧　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>陳Ｘ盈　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>許Ｘ瑞　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>李Ｘ媛　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>姜Ｘ美　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>劉Ｘ明　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>許Ｘ惠　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>楊Ｘ億　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>吳Ｘ聲　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>楊Ｘ柏　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>陳Ｘ桂　　　　　　　　　　　　　　　　　</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>該公司監察人（郭ＸＸ月）為本公司董事長之姐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（總經理蔡Ｘ繼）之妻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理張Ｘ富）之兄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理黃Ｘ正）之弟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理林Ｘ佑）之妻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理羅Ｘ哲）之妻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理張Ｘ富）之兄妻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司董事（陳Ｘ臣）之姪女</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（副總經理陳Ｘ慧）之妹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理羅Ｘ哲）之姊夫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司之負責人（協理呂Ｘ民）之妻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本公司授信職員（蘇Ｘ鴻）之妻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">為本公司之負責人（協理戴Ｘ名）之弟妻 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">為本公司之負責人（協理楊Ｘ柏）之弟 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -167,6 +952,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="30"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -188,6 +979,13 @@
       <b/>
       <sz val="14"/>
       <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -231,6 +1029,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -244,16 +1049,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -264,16 +1099,93 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="30"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="62"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -282,17 +1194,37 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="62"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="14"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -310,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -319,13 +1251,297 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -334,7 +1550,114 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right/>
@@ -347,6 +1670,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -359,144 +1697,397 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="93">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="千分位 2 2" xfId="4" xr:uid="{C7C827F4-2490-4678-B6D2-39F19ADF58EE}"/>
-    <cellStyle name="千分位 3" xfId="3" xr:uid="{46283993-B809-414E-B834-ED6213C0A40B}"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="千分位 2" xfId="3"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -545,7 +2136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,26 +2169,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,23 +2204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,189 +2379,942 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="41" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.69921875" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="2.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
+    <col min="7" max="7" width="41" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.75" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="5">
+        <v>97336810.936000004</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="20"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B5" s="25" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="25" t="s">
+      <c r="B4" s="13">
+        <v>263033</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15">
+        <v>22884.212</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2.3510336716339118E-4</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="25" t="s">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="25" t="s">
+      <c r="B5" s="21">
+        <v>177152</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="22">
+        <v>22595.285</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2.3213504513576721E-4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="21">
+        <v>1429975</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22">
+        <v>11203.759</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.1510300052224426E-4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="28">
+        <v>1421921</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="22">
+        <v>7160.2349999999997</v>
+      </c>
+      <c r="E7" s="23">
+        <v>7.3561429957962472E-5</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="25" t="s">
+      <c r="B8" s="28">
+        <v>1393415</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22">
+        <v>6479.1509999999998</v>
+      </c>
+      <c r="E8" s="23">
+        <v>6.6564241602903043E-5</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="25" t="s">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="25" t="s">
+      <c r="B9" s="29">
+        <v>249501</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="22">
+        <v>6492.97</v>
+      </c>
+      <c r="E9" s="23">
+        <v>6.6706212557849232E-5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.8">
-      <c r="B12" s="33" t="s">
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="28">
+        <v>1353951</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="22">
+        <v>6379.5889999999999</v>
+      </c>
+      <c r="E10" s="23">
+        <v>6.5541380888209375E-5</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="28">
+        <v>1418565</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5043.24</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5.1812258399507091E-5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1253351</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4971.2579999999998</v>
+      </c>
+      <c r="E12" s="23">
+        <v>5.107274372558451E-5</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="32" t="s">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="28">
+        <v>193238</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3787.0830000000001</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3.8906996886204211E-5</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="28">
+        <v>1191272</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3561.9369999999999</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3.659393569347584E-5</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="29">
+        <v>201902</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3359.337</v>
+      </c>
+      <c r="E15" s="23">
+        <v>3.4512503211234235E-5</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="21">
+        <v>1390689</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3178.0970000000002</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3.2650514943309917E-5</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="35">
+        <v>2109</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2248.5230000000001</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2.3100438347815073E-5</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="21">
+        <v>1311730</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="22">
+        <v>2024.807</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2.0802068411007756E-5</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="21">
+        <v>188400</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1700.18</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1.7466978665634388E-5</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1327530</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1736.7339999999999</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1.7842520042514246E-5</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="21">
+        <v>145359</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1602.6389999999999</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1.6464880907735432E-5</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="36">
+        <v>564675</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1408.4290000000001</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1.4469643975967707E-5</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="21">
+        <v>1188160</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="22">
+        <v>1215.5999999999999</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1.248859489344961E-5</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="37">
+        <v>1282671</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1164.952</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1.1968257320100289E-5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="38">
+        <v>508002</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="22">
+        <v>594.952</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6.1123021627571847E-6</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="37">
+        <v>123605</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="22">
+        <v>252.23099999999999</v>
+      </c>
+      <c r="E26" s="23">
+        <v>2.5913217987575593E-6</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="40">
+        <v>1351629</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="22">
+        <v>250.738</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2.5759833056875361E-6</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="40">
+        <v>1133559</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22">
+        <v>159.261</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1.6361846917782811E-6</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="41">
+        <v>272709</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="22">
+        <v>130.178</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1.3373974218817733E-6</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="35">
+        <v>1084678</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="22">
+        <v>123.63</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1.2701258528111019E-6</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A31" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="44">
+        <v>121709.00700000001</v>
+      </c>
+      <c r="E31" s="45">
+        <v>1.2503903284855407E-3</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B32" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="48">
+        <v>1377243.013</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+    </row>
+    <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="B33" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="51">
+        <v>1498952.02</v>
+      </c>
+      <c r="E33" s="45">
+        <v>1.5399641775664677E-2</v>
+      </c>
+      <c r="F33" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56">
+        <v>2.7779700295574434E-2</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="60">
+        <v>52459586.195</v>
+      </c>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="59"/>
+    </row>
+    <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56">
+        <v>0.97222029970442547</v>
+      </c>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+    </row>
+    <row r="37" spans="1:31" s="67" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="63">
+        <v>53958538.215000004</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+    </row>
+    <row r="38" spans="1:31" s="72" customFormat="1" ht="15.95" customHeight="1" thickTop="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+    </row>
+    <row r="39" spans="1:31" s="74" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A39" s="73"/>
+      <c r="B39" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+    </row>
+    <row r="40" spans="1:31" s="77" customFormat="1" ht="19.5">
+      <c r="A40" s="75"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+    </row>
+    <row r="42" spans="1:31" s="67" customFormat="1" ht="19.5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+    </row>
+    <row r="90" spans="3:7" s="3" customFormat="1" ht="58.5" customHeight="1">
+      <c r="C90" s="7"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A3:G39">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="11">
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="8">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0.39370078740157483" footer="0"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"標楷體,標準"&amp;8放款部 放款管理課製表 &amp;D&amp;C&amp;"Arial,標準"&amp;P / &amp;N</oddFooter>
   </headerFooter>
